--- a/Car_TestCases/Car_SearchTCs.xlsx
+++ b/Car_TestCases/Car_SearchTCs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,9 +13,131 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+  <si>
+    <t>Test case ID</t>
+  </si>
+  <si>
+    <t>Related Requirement</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Attachements</t>
+  </si>
+  <si>
+    <t>Designed by</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Reviewed by</t>
+  </si>
+  <si>
+    <t>Car_SRS_02</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_01</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Validate that the guest can search for cars colors by choosing the desired color from the colors drop down list</t>
+  </si>
+  <si>
+    <t>Don't login to the website, use an unregistered user</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page, Check that the colors drop down list is set to " All colors" and the cars viewed in the home page have different colors</t>
+  </si>
+  <si>
+    <t>the colors drop down list is set to " All colors" and the cars viewed in the home page have different colors</t>
+  </si>
+  <si>
+    <t>Jannat</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the guest after navigation to the website, he will found a list of cars with different colors and the colors drop down list is set to " All colors" </t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list
+3. choose "Gray"</t>
+  </si>
+  <si>
+    <t>All gray cars in the database are viewed in the search result page</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Validate that the search result is the result of searching the whole database not by just filtering the exsiting cars viewed in the page</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list
+3. choose "Gray"
+4. After checking the gray cars, click on the drop down list again
+5. choose "red"</t>
+  </si>
+  <si>
+    <t>All red cars in the database are viewed in the search result page</t>
+  </si>
+  <si>
+    <t>Validate that If the user click back after choosing a color, the viewed cars and the dropdown list will be rolled back to their previous state</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list
+3. choose "Gray"
+4. After checking the gray cars, click on the drop down list again
+5. choose "red"
+6. click back and check on the results viewed and the drop down list</t>
+  </si>
+  <si>
+    <t>All gray cars in the database are viewed in the search result page again and the colors down down list value is set to " Gray"</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_02</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_03</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_04</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,13 +145,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,14 +185,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +256,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +291,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +499,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="142.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="27.42578125" style="2"/>
+    <col min="7" max="7" width="42.140625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="27.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Car_TestCases/Car_SearchTCs.xlsx
+++ b/Car_TestCases/Car_SearchTCs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
   <si>
     <t>Test case ID</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Failed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validate that the guest after navigation to the website, he will found a list of cars with different colors and the colors drop down list is set to " All colors" </t>
   </si>
   <si>
     <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
@@ -132,12 +129,291 @@
   <si>
     <t>Car_SearchTC_04</t>
   </si>
+  <si>
+    <t xml:space="preserve">Validate that the guest after navigation to the website, he will found a list of cars with different colors and the colors drop down list is set to " All" </t>
+  </si>
+  <si>
+    <t>Check if the clicking on the color filter button opens the filter option containing different colors</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list
+3. Check if the clicking on the color filter button opens the filter option containing different colors</t>
+  </si>
+  <si>
+    <t>The colors drop down list is opened containg different colors and "All" options</t>
+  </si>
+  <si>
+    <t>Car_SRS_03
+Car_SRS_04</t>
+  </si>
+  <si>
+    <t>The colors drop down list is opened containg two options "From High to low" &amp; "From low to high"</t>
+  </si>
+  <si>
+    <t>Car_SRS_05</t>
+  </si>
+  <si>
+    <t>Check if the clicking on the price filter button opens the drop down list containing "From High to low" &amp; "From low to high"</t>
+  </si>
+  <si>
+    <t>Check if the clicking on the model filter button opens the drop down list containing different car models</t>
+  </si>
+  <si>
+    <t>The model drop down list is opened containg different Models and "All" options</t>
+  </si>
+  <si>
+    <t>Check if the filtering leads to 0 results that an error message appears having "Sorry, we don't have this car right now, please check it later"</t>
+  </si>
+  <si>
+    <t>Car_SRS_52</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. Check if the clicking on the model filter button opens the drop down list containing different car models</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. Check if the clicking on the price filter button opens the crop down list containing "From High to low" &amp; "From low to high"</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list and choose "Gray"
+3. click on the model drop down list and choose "Fiat"</t>
+  </si>
+  <si>
+    <t>an error message appears having "Sorry, we don't have this car right now, please check it later"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the guest after navigation to the website, he will found a list of cars with different models and the models drop down list is set to " All" </t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page, Check that themodels drop down list is set to " All" and the cars viewed in the home page have different models</t>
+  </si>
+  <si>
+    <t>the models drop down list is set to " All" and the cars viewed in the home page have different models</t>
+  </si>
+  <si>
+    <t>Validate that the guest can search for different  cars models by choosing the desired model from the model drop down list</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the model drop down list
+3. choose "BMW"</t>
+  </si>
+  <si>
+    <t>All BMW cars in the database are viewed in the search result page</t>
+  </si>
+  <si>
+    <t>Validate that If the user click back after choosing a model, the viewed cars and the dropdown list will be rolled back to their previous state</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. In the home page,click the colors drop down list
+3. choose "BMW"
+4. After checking the BMW cars, click on the drop down list again
+5. choose "Fiat"
+6. click back and check on the results viewed and the drop down list</t>
+  </si>
+  <si>
+    <t>All BMW cars in the database are viewed in the search result page again and the colors down down list value is set to " BMW"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car_SRS_03 </t>
+  </si>
+  <si>
+    <t>Check that the cars are sorted corretly from higher price to lower price after choosing from "High to Low" option from the price drop down list</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. choose "From high to low" from the price drop down list
+3. check that the cars are sorted correctly</t>
+  </si>
+  <si>
+    <t>All cars are sorted from higher price to lower price</t>
+  </si>
+  <si>
+    <t>Car_SRS_04</t>
+  </si>
+  <si>
+    <t>Check that the cars are sorted corretly from lower price to higher price after choosing from "low to high" option from the price drop down list</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. choose "From low to high" from the price drop down list
+3. check that the cars are sorted correctly</t>
+  </si>
+  <si>
+    <t>All cars are sorted from lower price to higher price</t>
+  </si>
+  <si>
+    <t>Car_SRS_53</t>
+  </si>
+  <si>
+    <t>check that the search results depends on the 3 filters (color, price and model)</t>
+  </si>
+  <si>
+    <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
+2. choose "From low to high" from the price drop down list
+3. choose "red" from the colors droplist
+4. choose "BMW" from the model droplist
+5. check the results</t>
+  </si>
+  <si>
+    <t>All red BMW cars are sorted from lower price to higher price</t>
+  </si>
+  <si>
+    <t>Car_SRS_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the user after navigation to the website, he will found a list of cars with different colors and the colors drop down list is set to " All" </t>
+  </si>
+  <si>
+    <t>The user should be logged in</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso123</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso124</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso125</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso126</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso127</t>
+  </si>
+  <si>
+    <t>Car_SRS_22
+Car_SRS_23</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso128</t>
+  </si>
+  <si>
+    <t>Car_SRS_24</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate that the user after navigation to the website, he will found a list of cars with different models and the models drop down list is set to " All" </t>
+  </si>
+  <si>
+    <t>Validate that the user can search for different  cars models by choosing the desired model from the model drop down list</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso130</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso131</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso132</t>
+  </si>
+  <si>
+    <t>Validate that the user can search for cars colors by choosing the desired color from the colors drop down list</t>
+  </si>
+  <si>
+    <t>Car_SRS_22</t>
+  </si>
+  <si>
+    <t>Car_SRS_23</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso133</t>
+  </si>
+  <si>
+    <t>username: customer  
+password: soso.soso134</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_05</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_06</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_07</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_08</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_09</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_10</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_11</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_12</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_13</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_14</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_15</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_16</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_17</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_18</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_19</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_20</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_21</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_22</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_23</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_24</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_25</t>
+  </si>
+  <si>
+    <t>Car_SearchTC_26</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,10 +429,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -185,16 +469,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,11 +787,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="142.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -565,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -585,7 +870,7 @@
     </row>
     <row r="3" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -600,21 +885,21 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -623,27 +908,27 @@
         <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -652,22 +937,690 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Car_TestCases/Car_SearchTCs.xlsx
+++ b/Car_TestCases/Car_SearchTCs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
   <si>
     <t>Test case ID</t>
   </si>
@@ -407,6 +407,27 @@
   </si>
   <si>
     <t>Car_SearchTC_26</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_02</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_01</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_03</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_04</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_05</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_06</t>
+  </si>
+  <si>
+    <t>Car_SearchBug_07</t>
   </si>
 </sst>
 </file>
@@ -469,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,6 +503,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,7 +813,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="142.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -867,6 +893,9 @@
       <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="L2" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -954,6 +983,9 @@
       <c r="K5" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="L5" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="6" spans="1:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -1039,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1067,6 +1099,9 @@
       <c r="K9" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="L9" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1096,6 +1131,9 @@
       <c r="K10" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="L10" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1154,6 +1192,9 @@
       <c r="K12" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="L12" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1268,10 +1309,10 @@
         <v>20</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -1303,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>105</v>
       </c>
@@ -1335,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>106</v>
       </c>
@@ -1366,8 +1407,11 @@
       <c r="K19" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>107</v>
       </c>
@@ -1399,7 +1443,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -1431,7 +1475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
@@ -1460,10 +1504,10 @@
         <v>20</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
@@ -1495,7 +1539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>111</v>
       </c>
@@ -1527,7 +1571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>112</v>
       </c>
@@ -1558,8 +1602,11 @@
       <c r="K25" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>113</v>
       </c>
@@ -1591,7 +1638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>

--- a/Car_TestCases/Car_SearchTCs.xlsx
+++ b/Car_TestCases/Car_SearchTCs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="123">
   <si>
     <t>Test case ID</t>
   </si>
@@ -428,6 +428,9 @@
   </si>
   <si>
     <t>Car_SearchBug_07</t>
+  </si>
+  <si>
+    <t>Fatma</t>
   </si>
 </sst>
 </file>
@@ -505,7 +508,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="142.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -896,6 +899,9 @@
       <c r="L2" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -925,6 +931,9 @@
       <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -954,6 +963,9 @@
       <c r="K4" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -985,6 +997,9 @@
       </c>
       <c r="L5" s="5" t="s">
         <v>115</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">

--- a/Car_TestCases/Car_SearchTCs.xlsx
+++ b/Car_TestCases/Car_SearchTCs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="123">
   <si>
     <t>Test case ID</t>
   </si>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="142.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1030,6 +1030,9 @@
       <c r="K6" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1059,6 +1062,9 @@
       <c r="K7" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="8" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -1088,6 +1094,9 @@
       <c r="K8" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M8" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1117,6 +1126,9 @@
       <c r="L9" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1149,6 +1161,9 @@
       <c r="L10" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1178,6 +1193,9 @@
       <c r="K11" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M11" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="12" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1210,6 +1228,9 @@
       <c r="L12" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="M12" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1239,6 +1260,9 @@
       <c r="K13" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M13" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1268,6 +1292,9 @@
       <c r="K14" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M14" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1294,6 +1321,9 @@
       <c r="K15" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="M15" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1326,8 +1356,11 @@
       <c r="K16" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>104</v>
       </c>
@@ -1358,8 +1391,11 @@
       <c r="K17" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>105</v>
       </c>
@@ -1390,8 +1426,11 @@
       <c r="K18" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>106</v>
       </c>
@@ -1425,8 +1464,11 @@
       <c r="L19" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="168" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>107</v>
       </c>
@@ -1457,8 +1499,11 @@
       <c r="K20" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>108</v>
       </c>
@@ -1489,8 +1534,11 @@
       <c r="K21" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>109</v>
       </c>
@@ -1521,8 +1569,11 @@
       <c r="K22" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>110</v>
       </c>
@@ -1553,8 +1604,11 @@
       <c r="K23" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>111</v>
       </c>
@@ -1585,8 +1639,11 @@
       <c r="K24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>112</v>
       </c>
@@ -1620,8 +1677,11 @@
       <c r="L25" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>113</v>
       </c>
@@ -1652,8 +1712,11 @@
       <c r="K26" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
@@ -1683,6 +1746,9 @@
       </c>
       <c r="K27" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Car_TestCases/Car_SearchTCs.xlsx
+++ b/Car_TestCases/Car_SearchTCs.xlsx
@@ -166,9 +166,6 @@
     <t>Check if the filtering leads to 0 results that an error message appears having "Sorry, we don't have this car right now, please check it later"</t>
   </si>
   <si>
-    <t>Car_SRS_52</t>
-  </si>
-  <si>
     <t>1. Navigate to car connect website "http://localhost:8080/Car_implementation/"
 2. Check if the clicking on the model filter button opens the drop down list containing different car models</t>
   </si>
@@ -248,9 +245,6 @@
     <t>All cars are sorted from lower price to higher price</t>
   </si>
   <si>
-    <t>Car_SRS_53</t>
-  </si>
-  <si>
     <t>check that the search results depends on the 3 filters (color, price and model)</t>
   </si>
   <si>
@@ -431,6 +425,12 @@
   </si>
   <si>
     <t>Fatma</t>
+  </si>
+  <si>
+    <t>Car_SRS_54</t>
+  </si>
+  <si>
+    <t>Car_SRS_55</t>
   </si>
 </sst>
 </file>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.42578125" defaultRowHeight="142.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>24</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -996,15 +996,15 @@
         <v>21</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -1031,12 +1031,12 @@
         <v>24</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>38</v>
@@ -1051,7 +1051,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>39</v>
@@ -1063,12 +1063,12 @@
         <v>24</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>40</v>
@@ -1083,7 +1083,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>43</v>
@@ -1095,15 +1095,15 @@
         <v>24</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1112,10 +1112,10 @@
         <v>44</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>20</v>
@@ -1124,15 +1124,15 @@
         <v>21</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>40</v>
@@ -1141,16 +1141,16 @@
         <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>20</v>
@@ -1159,15 +1159,15 @@
         <v>21</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -1176,17 +1176,17 @@
         <v>15</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1194,12 +1194,12 @@
         <v>24</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>40</v>
@@ -1208,16 +1208,16 @@
         <v>15</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>20</v>
@@ -1226,34 +1226,34 @@
         <v>21</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1261,31 +1261,31 @@
         <v>24</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="J14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1293,28 +1293,28 @@
         <v>24</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="J15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1322,27 +1322,27 @@
         <v>24</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>18</v>
@@ -1357,27 +1357,27 @@
         <v>24</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>22</v>
@@ -1392,15 +1392,15 @@
         <v>24</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
@@ -1409,10 +1409,10 @@
         <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>26</v>
@@ -1427,15 +1427,15 @@
         <v>24</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1444,10 +1444,10 @@
         <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>29</v>
@@ -1462,18 +1462,18 @@
         <v>21</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="168" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>15</v>
@@ -1482,10 +1482,10 @@
         <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>36</v>
@@ -1500,15 +1500,15 @@
         <v>24</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -1517,13 +1517,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>39</v>
@@ -1535,15 +1535,15 @@
         <v>24</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>15</v>
@@ -1552,13 +1552,13 @@
         <v>42</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>43</v>
@@ -1570,34 +1570,34 @@
         <v>24</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="G23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="J23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1605,34 +1605,34 @@
         <v>24</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="J24" s="2" t="s">
         <v>20</v>
       </c>
@@ -1640,33 +1640,33 @@
         <v>24</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>20</v>
@@ -1675,37 +1675,37 @@
         <v>21</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="J26" s="2" t="s">
         <v>20</v>
       </c>
@@ -1713,34 +1713,34 @@
         <v>24</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="J27" s="2" t="s">
         <v>20</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>24</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
